--- a/document/02.概要設計/xlsx/DB設計.xlsx
+++ b/document/02.概要設計/xlsx/DB設計.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\めろんぱん\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uratamanabu/IdeaProjects/BookManager/document/02.概要設計/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D643107-E591-D54E-A486-122E0B603591}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="10905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>ISBNコード</t>
     <phoneticPr fontId="1"/>
@@ -169,13 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>書籍名</t>
-    <rPh sb="0" eb="3">
-      <t>ショセキメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>書籍ジャンルID</t>
     <rPh sb="0" eb="2">
       <t>ショセキ</t>
@@ -195,14 +189,89 @@
   </si>
   <si>
     <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍情報マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍情報ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録申請テーブル</t>
+    <rPh sb="0" eb="15">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>トウロクシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録申請リビジョンテーブル</t>
+    <rPh sb="0" eb="20">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>トウロクシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録申請ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録申請ステータスマスタ</t>
+    <rPh sb="0" eb="19">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出版社名</t>
+    <rPh sb="0" eb="3">
+      <t>シュッパンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイリユウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -257,54 +326,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,165 +645,571 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1"/>
-    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.625" style="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="1"/>
-    <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1"/>
-    <col min="10" max="10" width="20.625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1"/>
+    <col min="2" max="2" width="3" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" style="1"/>
+    <col min="6" max="6" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="1"/>
+    <col min="10" max="10" width="20.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D11" s="7"/>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="F16" s="5">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="5">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="F17" s="5">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="5">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="F18" s="5">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="5">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="F19" s="5">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="5">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="D23" s="7"/>
+      <c r="F23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="F27" s="5">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="D30" s="9"/>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="5">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="F34" s="5">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="5">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="F35" s="5">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="5">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="F36" s="5">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="5">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="F37" s="5">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="5">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="F38" s="5">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="5">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="F39" s="5">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="5">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="5">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="H7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="D12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/02.概要設計/xlsx/DB設計.xlsx
+++ b/document/02.概要設計/xlsx/DB設計.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uratamanabu/IdeaProjects/BookManager/document/02.概要設計/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D643107-E591-D54E-A486-122E0B603591}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{C6C9D871-3246-4A4B-9DCF-76EAF6BEE5FF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>ISBNコード</t>
     <phoneticPr fontId="1"/>
@@ -214,21 +215,15 @@
   </si>
   <si>
     <t>書籍登録申請テーブル</t>
+    <rPh sb="0" eb="10">
+      <t>ショセキトウロクシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍登録申請リビジョンテーブル</t>
     <rPh sb="0" eb="15">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>トウロクシンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書籍登録申請リビジョンテーブル</t>
-    <rPh sb="0" eb="20">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="29" eb="33">
-      <t>トウロクシンセイ</t>
+      <t>ショセキトウロクシンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -241,14 +236,8 @@
   </si>
   <si>
     <t>書籍登録申請ステータスマスタ</t>
-    <rPh sb="0" eb="19">
-      <t>ショセキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シンセイ</t>
+    <rPh sb="0" eb="14">
+      <t>ショセキトウロクシンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -264,6 +253,10 @@
     <rPh sb="0" eb="2">
       <t>シンセイリユウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -646,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G47"/>
+  <dimension ref="B2:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15"/>
@@ -667,7 +660,7 @@
     <col min="11" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -682,7 +675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -697,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -712,7 +705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -726,8 +719,11 @@
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -741,8 +737,11 @@
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -753,7 +752,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -762,14 +761,14 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="F9" s="10"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
@@ -784,7 +783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="5">
         <v>1</v>
       </c>
@@ -799,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="B13" s="5">
         <v>2</v>
       </c>
@@ -814,7 +813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8">
       <c r="B14" s="5">
         <v>3</v>
       </c>
@@ -828,8 +827,11 @@
       <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -844,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8">
       <c r="B16" s="5">
         <v>5</v>
       </c>
@@ -859,7 +861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:8">
       <c r="B17" s="5">
         <v>6</v>
       </c>
@@ -874,7 +876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:8">
       <c r="B18" s="5">
         <v>7</v>
       </c>
@@ -888,8 +890,11 @@
       <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="5">
         <v>8</v>
       </c>
@@ -903,8 +908,11 @@
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="5">
         <v>9</v>
       </c>
@@ -915,14 +923,14 @@
       <c r="F20" s="5"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:8">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="8"/>
       <c r="F21" s="10"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:8">
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
@@ -937,7 +945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8">
       <c r="B24" s="5">
         <v>1</v>
       </c>
@@ -952,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8">
       <c r="B25" s="5">
         <v>2</v>
       </c>
@@ -967,7 +975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:8">
       <c r="B26" s="5">
         <v>3</v>
       </c>
@@ -981,8 +989,11 @@
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="5">
         <v>4</v>
       </c>
@@ -996,15 +1007,18 @@
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="8"/>
       <c r="F28" s="5"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:8">
       <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1019,7 +1033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:8">
       <c r="B31" s="5">
         <v>1</v>
       </c>
@@ -1034,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:8">
       <c r="B32" s="5">
         <v>2</v>
       </c>
@@ -1048,8 +1062,11 @@
       <c r="G32" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="H32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="5">
         <v>3</v>
       </c>
@@ -1063,8 +1080,11 @@
       <c r="G33" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="5">
         <v>4</v>
       </c>
@@ -1078,8 +1098,11 @@
       <c r="G34" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="H34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="5">
         <v>5</v>
       </c>
@@ -1094,7 +1117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:8">
       <c r="B36" s="5">
         <v>6</v>
       </c>
@@ -1109,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:8">
       <c r="B37" s="5">
         <v>7</v>
       </c>
@@ -1124,7 +1147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:8">
       <c r="B38" s="5">
         <v>8</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="G38" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="H38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="5">
         <v>9</v>
       </c>
@@ -1153,15 +1179,18 @@
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="H39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="8"/>
       <c r="F40" s="5"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:8">
       <c r="B42" s="5" t="s">
         <v>24</v>
       </c>
@@ -1170,7 +1199,7 @@
       </c>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:8">
       <c r="B43" s="5">
         <v>1</v>
       </c>
@@ -1179,7 +1208,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:8">
       <c r="B44" s="5">
         <v>2</v>
       </c>
@@ -1188,7 +1217,7 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:8">
       <c r="B45" s="5">
         <v>3</v>
       </c>
@@ -1197,7 +1226,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:8">
       <c r="B46" s="5">
         <v>4</v>
       </c>
@@ -1206,7 +1235,7 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:8">
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="8"/>
